--- a/MISA.AMIS/MISA.AMIS.API/wwwroot/Danh_sach_nhan_vien.xlsx
+++ b/MISA.AMIS/MISA.AMIS.API/wwwroot/Danh_sach_nhan_vien.xlsx
@@ -50,67 +50,67 @@
     <t>Hoàng Hồng Sơn</t>
   </si>
   <si>
+    <t>Khác</t>
+  </si>
+  <si>
+    <t>28-08-2021</t>
+  </si>
+  <si>
+    <t>Lễ Tân</t>
+  </si>
+  <si>
+    <t>bộ phận nhân sự</t>
+  </si>
+  <si>
+    <t>NV-00108</t>
+  </si>
+  <si>
+    <t>NV-00107</t>
+  </si>
+  <si>
+    <t>NV-00101</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuấn Thuận</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Bộ phận quản lí</t>
+  </si>
+  <si>
+    <t>NV-00102</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thanh</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>28-04-1991</t>
+  </si>
+  <si>
+    <t>Bộ phận Kế toán - Thủ quỹ</t>
+  </si>
+  <si>
+    <t>TMCP BIDV</t>
+  </si>
+  <si>
+    <t>NV-00103</t>
+  </si>
+  <si>
+    <t>Trân Ngọc Linh</t>
+  </si>
+  <si>
     <t>Nam</t>
   </si>
   <si>
-    <t>28-08-2021</t>
-  </si>
-  <si>
-    <t>Lễ Tân</t>
-  </si>
-  <si>
-    <t>bộ phận nhân sự</t>
-  </si>
-  <si>
-    <t>NV-00108</t>
-  </si>
-  <si>
-    <t>Khác</t>
-  </si>
-  <si>
-    <t>NV-00107</t>
-  </si>
-  <si>
-    <t>NV-00101</t>
-  </si>
-  <si>
-    <t>Nguyễn Tuấn Thuận</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Bộ phận quản lí</t>
-  </si>
-  <si>
-    <t>NV-00102</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Thanh</t>
-  </si>
-  <si>
-    <t>Nữ</t>
-  </si>
-  <si>
-    <t>28-04-1991</t>
-  </si>
-  <si>
-    <t>Bộ phận Kế toán - Thủ quỹ</t>
-  </si>
-  <si>
-    <t>lCOUIpAKcGakQErhSQFIjQMKsliTMwYi</t>
-  </si>
-  <si>
-    <t>NV-00103</t>
-  </si>
-  <si>
-    <t>Trân Ngọc Linh</t>
-  </si>
-  <si>
     <t>14-08-1985</t>
   </si>
   <si>
-    <t>eHukxiWAWAPLcJlTuc</t>
+    <t>ACB</t>
   </si>
   <si>
     <t>NV-00104</t>
@@ -516,7 +516,7 @@
     <col min="6" max="6" width="13.974916458129883" customWidth="1"/>
     <col min="7" max="7" width="25.027090072631836" customWidth="1"/>
     <col min="8" max="8" width="13.014010429382324" customWidth="1"/>
-    <col min="9" max="9" width="40.01294708251953" customWidth="1"/>
+    <col min="9" max="9" width="29.93780517578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -617,7 +617,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>13</v>
@@ -638,13 +638,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>13</v>
@@ -665,20 +665,20 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="D7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -690,24 +690,24 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -717,13 +717,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>31</v>
@@ -750,7 +750,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>35</v>
@@ -777,10 +777,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
@@ -802,7 +802,7 @@
         <v>42</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>43</v>
@@ -829,14 +829,14 @@
         <v>46</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -854,10 +854,10 @@
         <v>48</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>44</v>
@@ -881,10 +881,10 @@
         <v>50</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
@@ -906,10 +906,10 @@
         <v>48</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>52</v>
@@ -933,7 +933,7 @@
         <v>54</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>55</v>
@@ -960,16 +960,16 @@
         <v>58</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>59</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -987,10 +987,10 @@
         <v>61</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>56</v>
@@ -1014,7 +1014,7 @@
         <v>63</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>64</v>
@@ -1041,10 +1041,10 @@
         <v>67</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
@@ -1066,10 +1066,10 @@
         <v>69</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
@@ -1091,14 +1091,14 @@
         <v>71</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -1116,10 +1116,10 @@
         <v>73</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
@@ -1141,7 +1141,7 @@
         <v>75</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>43</v>
@@ -1150,7 +1150,7 @@
         <v>59</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -1168,16 +1168,16 @@
         <v>77</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>78</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -1195,7 +1195,7 @@
         <v>48</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>80</v>
@@ -1220,10 +1220,10 @@
         <v>82</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>56</v>
@@ -1247,16 +1247,16 @@
         <v>48</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -1274,10 +1274,10 @@
         <v>85</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>56</v>
@@ -1301,14 +1301,14 @@
         <v>48</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -1326,14 +1326,14 @@
         <v>88</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -1351,10 +1351,10 @@
         <v>90</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>59</v>
@@ -1378,14 +1378,14 @@
         <v>92</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -1403,10 +1403,10 @@
         <v>67</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="s">
@@ -1428,14 +1428,14 @@
         <v>95</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
@@ -1453,10 +1453,10 @@
         <v>67</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7" t="s">
@@ -1478,10 +1478,10 @@
         <v>98</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7" t="s">
@@ -1503,10 +1503,10 @@
         <v>100</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7" t="s">
@@ -1528,10 +1528,10 @@
         <v>102</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7" t="s">
@@ -1553,10 +1553,10 @@
         <v>104</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="7" t="s">
@@ -1578,10 +1578,10 @@
         <v>106</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7" t="s">
@@ -1603,10 +1603,10 @@
         <v>108</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>56</v>
@@ -1630,10 +1630,10 @@
         <v>110</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7" t="s">
@@ -1655,7 +1655,7 @@
         <v>112</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>55</v>
@@ -1682,7 +1682,7 @@
         <v>114</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>115</v>
@@ -1709,10 +1709,10 @@
         <v>117</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7" t="s">
@@ -1734,10 +1734,10 @@
         <v>119</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>56</v>
@@ -1761,10 +1761,10 @@
         <v>117</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7" t="s">
@@ -1786,10 +1786,10 @@
         <v>122</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7" t="s">
@@ -1811,10 +1811,10 @@
         <v>124</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7" t="s">
@@ -1836,16 +1836,16 @@
         <v>126</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>59</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -1863,14 +1863,14 @@
         <v>128</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
@@ -1888,10 +1888,10 @@
         <v>130</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7" t="s">
@@ -1913,10 +1913,10 @@
         <v>132</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7" t="s">
@@ -1938,14 +1938,14 @@
         <v>67</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
